--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1181.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1181.xlsx
@@ -354,7 +354,7 @@
         <v>1.799281781397215</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.817873375742965</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1181.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1181.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.121164357390066</v>
+        <v>1.168878197669983</v>
       </c>
       <c r="B1">
-        <v>1.799281781397215</v>
+        <v>2.439692974090576</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.817873375742965</v>
+        <v>2.366775751113892</v>
       </c>
       <c r="E1">
-        <v>1.105054594264177</v>
+        <v>1.233752489089966</v>
       </c>
     </row>
   </sheetData>
